--- a/notes/students (1).xlsx
+++ b/notes/students (1).xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Laravel-7_task-1\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>lastname</t>
   </si>
@@ -173,14 +177,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -191,28 +190,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,19 +510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,12 +551,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -578,12 +583,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -610,12 +615,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -642,12 +647,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -674,12 +679,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -706,12 +711,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -738,12 +743,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -770,12 +775,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -803,17 +808,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/notes/students (1).xlsx
+++ b/notes/students (1).xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\Laravel-7_task-1\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Laravel-7_task-1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A77541-A25D-4D17-8F8F-211694BBDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>lastname</t>
   </si>
@@ -51,137 +64,38 @@
     <t>address</t>
   </si>
   <si>
-    <t>Emmanuel</t>
-  </si>
-  <si>
-    <t>Hipolito jaja</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>21-10-1998</t>
-  </si>
-  <si>
-    <t>Balagtas</t>
-  </si>
-  <si>
-    <t>emman@gmail.com</t>
-  </si>
-  <si>
-    <t>025 baliuag, bulacan</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Yap</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>02/15/1990</t>
-  </si>
-  <si>
-    <t>Negros</t>
-  </si>
-  <si>
-    <t>james@gmail.com</t>
-  </si>
-  <si>
-    <t>negros occidental</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>02/30/1999</t>
-  </si>
-  <si>
-    <t>manila</t>
-  </si>
-  <si>
-    <t>petfdsfer@gmail.com</t>
-  </si>
-  <si>
-    <t>Peter Malang</t>
-  </si>
-  <si>
-    <t>2022-10-19</t>
-  </si>
-  <si>
-    <t>peter@gmail.com</t>
-  </si>
-  <si>
-    <t>koko</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>sfer@gmail.com</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Barroca</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
-    <t>mark@gm.com</t>
-  </si>
-  <si>
-    <t>Hipolito</t>
-  </si>
-  <si>
-    <t>07-10-2004</t>
-  </si>
-  <si>
-    <t>nuel.official0304@gmail.com</t>
-  </si>
-  <si>
-    <t>025 Baliuag Bulacan</t>
-  </si>
-  <si>
-    <t>EMman james</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>06-04-2000</t>
-  </si>
-  <si>
-    <t>cwdadial0304@gmail.com</t>
+    <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>leo.cruz@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -202,13 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -267,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +218,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,14 +462,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -556,259 +512,38 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>36506</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>9898976566</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>9079426625</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>9327480660</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>90700466625</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>9079466625</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>9066625</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7">
-        <v>974637243</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>22222222222</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>33333333333</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D3A8D9F5-0FB1-4E6C-B26F-9454FA381744}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>